--- a/stock_historical_data/1d/MAXHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/MAXHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1096"/>
+  <dimension ref="A1:Q1110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57813,7 +57813,9 @@
       <c r="P1082" t="n">
         <v>0</v>
       </c>
-      <c r="Q1082" t="inlineStr"/>
+      <c r="Q1082" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
@@ -57864,7 +57866,9 @@
       <c r="P1083" t="n">
         <v>0</v>
       </c>
-      <c r="Q1083" t="inlineStr"/>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
@@ -57915,7 +57919,9 @@
       <c r="P1084" t="n">
         <v>0</v>
       </c>
-      <c r="Q1084" t="inlineStr"/>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
@@ -57966,7 +57972,9 @@
       <c r="P1085" t="n">
         <v>0</v>
       </c>
-      <c r="Q1085" t="inlineStr"/>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
@@ -58017,7 +58025,9 @@
       <c r="P1086" t="n">
         <v>0</v>
       </c>
-      <c r="Q1086" t="inlineStr"/>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
@@ -58068,7 +58078,9 @@
       <c r="P1087" t="n">
         <v>0</v>
       </c>
-      <c r="Q1087" t="inlineStr"/>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
@@ -58119,7 +58131,9 @@
       <c r="P1088" t="n">
         <v>0</v>
       </c>
-      <c r="Q1088" t="inlineStr"/>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
@@ -58170,7 +58184,9 @@
       <c r="P1089" t="n">
         <v>0</v>
       </c>
-      <c r="Q1089" t="inlineStr"/>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
@@ -58221,7 +58237,9 @@
       <c r="P1090" t="n">
         <v>0</v>
       </c>
-      <c r="Q1090" t="inlineStr"/>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
@@ -58272,7 +58290,9 @@
       <c r="P1091" t="n">
         <v>0</v>
       </c>
-      <c r="Q1091" t="inlineStr"/>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
@@ -58323,7 +58343,9 @@
       <c r="P1092" t="n">
         <v>0</v>
       </c>
-      <c r="Q1092" t="inlineStr"/>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
@@ -58374,7 +58396,9 @@
       <c r="P1093" t="n">
         <v>0</v>
       </c>
-      <c r="Q1093" t="inlineStr"/>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
@@ -58425,7 +58449,9 @@
       <c r="P1094" t="n">
         <v>0</v>
       </c>
-      <c r="Q1094" t="inlineStr"/>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
@@ -58476,7 +58502,9 @@
       <c r="P1095" t="n">
         <v>0</v>
       </c>
-      <c r="Q1095" t="inlineStr"/>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
@@ -58527,7 +58555,723 @@
       <c r="P1096" t="n">
         <v>0</v>
       </c>
-      <c r="Q1096" t="inlineStr"/>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>1088</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>1082.849975585938</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>1467332</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>1087</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>1051.949951171875</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>1055.75</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>756024</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>1040.349975585938</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>1042.949951171875</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>1015.900024414062</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>1029.949951171875</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>702909</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>1043.800048828125</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>982</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>1021.650024414062</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>2125229</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>1074681</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>1040.099975585938</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>1058.400024414062</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>998</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>1043.849975585938</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>3974586</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>1069</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>1029.75</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>1061.25</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>2955047</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>1073.449951171875</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>1117.75</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>1067.25</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>1484218</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>1125</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>1090.550048828125</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>1145</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>2635417</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>1150.199951171875</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>1184</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>1174.300048828125</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>2429222</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>1200.949951171875</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>1164.25</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>1169.699951171875</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>1565195</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>1187.949951171875</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>1121</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>1125.75</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>1003312</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>1133</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>1147.050048828125</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>1110.599975585938</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>1143.199951171875</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>1906494</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>1071.849975585938</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>3230528</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
